--- a/Connect Medical Boards/EFM1/Project Outputs for 105358-3BA001-01_EFM1/105358-3BA001-01_EFM1_BOM_Costs.xlsx
+++ b/Connect Medical Boards/EFM1/Project Outputs for 105358-3BA001-01_EFM1/105358-3BA001-01_EFM1_BOM_Costs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="158">
   <si>
     <t>Designator</t>
   </si>
@@ -113,9 +113,6 @@
     <t>445-5947-1-ND</t>
   </si>
   <si>
-    <t>10µF</t>
-  </si>
-  <si>
     <t>Murata Electronics North America</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Molex, LLC</t>
   </si>
   <si>
-    <t>WM4459TR-ND</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>MLZ2012N150LT000</t>
   </si>
   <si>
-    <t>445-6763-2-ND</t>
-  </si>
-  <si>
     <t>0805</t>
   </si>
   <si>
@@ -224,9 +215,6 @@
     <t>MLZ2012M2R2HTD25</t>
   </si>
   <si>
-    <t>445-17077-2-ND</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
@@ -392,9 +380,6 @@
     <t>TPS627431YFPR</t>
   </si>
   <si>
-    <t>296-44499-1-ND</t>
-  </si>
-  <si>
     <t>8-XFBGA, DSBGA</t>
   </si>
   <si>
@@ -449,9 +434,6 @@
     <t>8-UFDFN Exposed Pad</t>
   </si>
   <si>
-    <t>Cost as 20170803</t>
-  </si>
-  <si>
     <t>Total Cost</t>
   </si>
   <si>
@@ -461,9 +443,6 @@
     <t>C5, C6</t>
   </si>
   <si>
-    <t>10µF ±10% 10V X5R Ceramic Capacitor 0603, 10µF ±10% 10V X5R Ceramic Capacitor 0603</t>
-  </si>
-  <si>
     <t>10µF ±10% 4V X6S Ceramic Capacitor 0603</t>
   </si>
   <si>
@@ -479,14 +458,53 @@
     <t>490-10474-1-ND</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Cost as 20170803 (unit)</t>
+  </si>
+  <si>
+    <t>WM4459CT-ND</t>
+  </si>
+  <si>
+    <t>445-6763-1-ND</t>
+  </si>
+  <si>
+    <t>445-17077-1-ND</t>
+  </si>
+  <si>
+    <t>296-44499-2-ND</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cost as 20170804 (K-unit)</t>
+  </si>
+  <si>
+    <t>(Cost @10k by William)</t>
+  </si>
+  <si>
+    <t>10µF-4V</t>
+  </si>
+  <si>
+    <t>10µF ±10% 10V X5R Ceramic Capacitor 0603</t>
+  </si>
+  <si>
+    <t>10µF-10V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +516,12 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -553,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,6 +587,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,10 +885,11 @@
     <col min="6" max="6" width="31.140625" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,13 +918,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -929,11 +959,14 @@
         <v>0.1</v>
       </c>
       <c r="K2" s="2">
-        <f>J2*H2</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.15E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <f>K2*H2</f>
+        <v>9.4500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -965,11 +998,14 @@
         <v>0.1</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K27" si="0">J3*H3</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.0290000000000001E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L29" si="0">K3*H3</f>
+        <v>1.0290000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1001,28 +1037,31 @@
         <v>0.46</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.12018</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60089999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -1037,28 +1076,31 @@
         <v>0.15</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.9690000000000001E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9690000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
@@ -1073,28 +1115,31 @@
         <v>0.21</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.9940000000000003E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9880000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
@@ -1109,28 +1154,31 @@
         <v>0.1</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.62E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.62E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
@@ -1145,28 +1193,31 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.71874000000000005</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71874000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
@@ -1181,31 +1232,32 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.29712</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.29712</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
@@ -1220,28 +1272,31 @@
         <v>0.49</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1144</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
@@ -1256,31 +1311,34 @@
         <v>0.33</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.154</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1292,34 +1350,34 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.0380000000000003E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0380000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1331,34 +1389,34 @@
         <v>0.16</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.6420000000000007E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6420000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1370,28 +1428,31 @@
         <v>0.12</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.0620000000000001E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0620000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>16</v>
@@ -1406,31 +1467,37 @@
         <v>14.72</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>14.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1442,28 +1509,31 @@
         <v>0.49</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.1144</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>15</v>
@@ -1472,34 +1542,37 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J17" s="2">
         <v>0.1</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.47E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.47E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>15</v>
@@ -1508,34 +1581,37 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J18" s="2">
         <v>0.1</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.66E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>7.980000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>15</v>
@@ -1544,34 +1620,37 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J19" s="2">
         <v>0.1</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.66E-3</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.66E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
@@ -1580,34 +1659,37 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2">
         <v>0.1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.47E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.47E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
@@ -1616,34 +1698,37 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J21" s="2">
         <v>0.1</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.66E-3</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.66E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>15</v>
@@ -1652,37 +1737,40 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2">
         <v>0.1</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.66E-3</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.66E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -1694,31 +1782,34 @@
         <v>1.28</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.58401000000000003</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58401000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -1730,31 +1821,34 @@
         <v>2.52</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="0"/>
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4490000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -1766,31 +1860,34 @@
         <v>1.58</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="0"/>
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.77625</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -1802,31 +1899,34 @@
         <v>0.61</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46350000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -1838,14 +1938,70 @@
         <v>0.66</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26479999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="K28" s="2">
-        <f>SUM(K2:K27)</f>
-        <v>29.010000000000009</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="6">
+        <f>SUM(L2:L29)</f>
+        <v>13.581369999999996</v>
       </c>
     </row>
   </sheetData>
